--- a/PLR_do/bubble_data/bubble_data1.xlsx
+++ b/PLR_do/bubble_data/bubble_data1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miaosilin\Desktop\Population_land_realestate\PLR_do\bubble_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1845A1F-E7DA-4578-B45F-9E612E0E3672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CFBDF2-C8C6-4FF5-8660-DEFB06214248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{2E2C9D93-94A1-48CF-8FF4-BF6D22E6AD42}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D15"/>
+      <selection activeCell="E2" sqref="E2:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -517,16 +517,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.99099999999999999</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="C2">
-        <v>0.52</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="D2">
-        <v>0.71799999999999997</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E15" si="0">IF(AND(B2&gt;0.9,C2&gt;0.4),"1",IF(AND(B2&gt;0.9,C2&lt;0.4),"2",IF(AND(B2&lt;0.9,C2&lt;0.4),"3","4")))</f>
+        <f>IF(AND(B2&gt;0.8,C2&gt;0.5),"1",IF(AND(B2&gt;0.8,C2&gt;0.3),"2",IF(AND(B2&gt;0.8,C2&lt;0.3),"3","4")))</f>
         <v>1</v>
       </c>
     </row>
@@ -535,16 +535,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.997</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="C3">
-        <v>0.39600000000000002</v>
+        <v>0.379</v>
       </c>
       <c r="D3">
-        <v>0.629</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E3:E15" si="0">IF(AND(B3&gt;0.8,C3&gt;0.5),"1",IF(AND(B3&gt;0.8,C3&gt;0.3),"2",IF(AND(B3&gt;0.8,C3&lt;0.3),"3","4")))</f>
         <v>2</v>
       </c>
     </row>
@@ -553,17 +553,17 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.92700000000000005</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="C4">
-        <v>0.29599999999999999</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="D4">
-        <v>0.52400000000000002</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -571,13 +571,13 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.84799999999999998</v>
+        <v>0.995</v>
       </c>
       <c r="C5">
-        <v>0.26300000000000001</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="D5">
-        <v>0.47199999999999998</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
@@ -589,13 +589,13 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.68899999999999995</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="C6">
-        <v>0.224</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="D6">
-        <v>0.39300000000000002</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
@@ -607,13 +607,13 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.83499999999999996</v>
+        <v>0.997</v>
       </c>
       <c r="C7">
-        <v>0.252</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="D7">
-        <v>0.45900000000000002</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
@@ -625,13 +625,13 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.78900000000000003</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="C8">
-        <v>0.21</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="D8">
-        <v>0.40699999999999997</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
@@ -643,13 +643,13 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.68700000000000006</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="C9">
-        <v>0.20499999999999999</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D9">
-        <v>0.375</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
@@ -661,13 +661,13 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.80900000000000005</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="C10">
-        <v>0.248</v>
+        <v>0.09</v>
       </c>
       <c r="D10">
-        <v>0.44800000000000001</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
@@ -679,13 +679,13 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.81</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="C11">
-        <v>0.28199999999999997</v>
+        <v>0.112</v>
       </c>
       <c r="D11">
-        <v>0.47799999999999998</v>
+        <v>0.311</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
@@ -697,13 +697,13 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.80600000000000005</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="C12">
-        <v>0.248</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="D12">
-        <v>0.44700000000000001</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
@@ -715,13 +715,13 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.79100000000000004</v>
+        <v>0.997</v>
       </c>
       <c r="C13">
-        <v>0.252</v>
+        <v>0.1</v>
       </c>
       <c r="D13">
-        <v>0.44600000000000001</v>
+        <v>0.316</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
@@ -733,13 +733,13 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.70499999999999996</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="C14">
-        <v>0.251</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="D14">
-        <v>0.42</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
@@ -751,13 +751,13 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.74</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="C15">
-        <v>0.219</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D15">
-        <v>0.40200000000000002</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
